--- a/data/input/absenteeism_data_36.xlsx
+++ b/data/input/absenteeism_data_36.xlsx
@@ -476,185 +476,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54809</v>
+        <v>34566</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Theo Duarte</t>
+          <t>Luna Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>9268.48</v>
+        <v>6848.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27621</v>
+        <v>17227</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nathan Porto</t>
+          <t>Alexia Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>2981.31</v>
+        <v>6885.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82163</v>
+        <v>84874</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Luana Carvalho</t>
+          <t>Gabriela Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>7576.91</v>
+        <v>8466.790000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67158</v>
+        <v>54966</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Luna Azevedo</t>
+          <t>Marcela Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>5768.83</v>
+        <v>5008.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56656</v>
+        <v>35458</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Emanuel Santos</t>
+          <t>Clarice Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>5565.21</v>
+        <v>10084.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68216</v>
+        <v>24441</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juliana Santos</t>
+          <t>Srta. Maria Clara da Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>7726.31</v>
+        <v>8489.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10435</v>
+        <v>64841</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gustavo Ferreira</t>
+          <t>Paulo Caldeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,55 +664,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>6587.11</v>
+        <v>3659.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50278</v>
+        <v>11190</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Benício Nascimento</t>
+          <t>Milena Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>3227.8</v>
+        <v>9206.870000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97632</v>
+        <v>99195</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marcela da Paz</t>
+          <t>Luana Fogaça</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>2934.69</v>
+        <v>6133.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57199</v>
+        <v>12358</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pietra Azevedo</t>
+          <t>Sabrina Lopes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>3681.18</v>
+        <v>10099.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_36.xlsx
+++ b/data/input/absenteeism_data_36.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34566</v>
+        <v>27958</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luna Fernandes</t>
+          <t>Lorenzo da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,119 +494,119 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>6848.45</v>
+        <v>9068.049999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17227</v>
+        <v>15291</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexia Carvalho</t>
+          <t>Henrique das Neves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>6885.77</v>
+        <v>5365.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84874</v>
+        <v>78227</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabriela Duarte</t>
+          <t>Heloísa Correia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>8466.790000000001</v>
+        <v>7191.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54966</v>
+        <v>73731</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcela Rodrigues</t>
+          <t>Emanuelly da Rosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>5008.53</v>
+        <v>7460.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35458</v>
+        <v>30626</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clarice Martins</t>
+          <t>Heloísa Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -616,21 +616,21 @@
         <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>10084.74</v>
+        <v>11330.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24441</v>
+        <v>55213</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Maria Clara da Rocha</t>
+          <t>Stella Nunes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,106 +642,106 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>8489.98</v>
+        <v>3573.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64841</v>
+        <v>30771</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Paulo Caldeira</t>
+          <t>Ian da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>3659.1</v>
+        <v>10890.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11190</v>
+        <v>3618</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Milena Porto</t>
+          <t>Manuela Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>9206.870000000001</v>
+        <v>4552.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99195</v>
+        <v>32902</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luana Fogaça</t>
+          <t>Matheus Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>6133.81</v>
+        <v>4820.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12358</v>
+        <v>91850</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sabrina Lopes</t>
+          <t>Olivia Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>10099.9</v>
+        <v>6518.48</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_36.xlsx
+++ b/data/input/absenteeism_data_36.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27958</v>
+        <v>2245</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorenzo da Costa</t>
+          <t>Davi Lucas Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>9068.049999999999</v>
+        <v>3233.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15291</v>
+        <v>46355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henrique das Neves</t>
+          <t>Stephany Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,118 +519,118 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>5365.52</v>
+        <v>3669.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78227</v>
+        <v>35641</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Heloísa Correia</t>
+          <t>Vinicius Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>7191.67</v>
+        <v>6418.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73731</v>
+        <v>7975</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuelly da Rosa</t>
+          <t>Kamilly Souza</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>7460.18</v>
+        <v>4819.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30626</v>
+        <v>61247</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heloísa Costa</t>
+          <t>Caroline Moreira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>11330.98</v>
+        <v>6972.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55213</v>
+        <v>62291</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stella Nunes</t>
+          <t>Kaique Viana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>3573.32</v>
+        <v>3051.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30771</v>
+        <v>28783</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ian da Costa</t>
+          <t>Renan Sales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -671,24 +671,24 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>10890.94</v>
+        <v>3215.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3618</v>
+        <v>58372</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manuela Pires</t>
+          <t>Laura Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,19 +700,19 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>4552.81</v>
+        <v>3437.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32902</v>
+        <v>36355</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>Ana Carolina Barros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>4820.53</v>
+        <v>3723.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91850</v>
+        <v>25352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Nunes</t>
+          <t>Calebe Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>6518.48</v>
+        <v>8543.530000000001</v>
       </c>
     </row>
   </sheetData>
